--- a/sputnik/personal/cel/cel283.xlsx
+++ b/sputnik/personal/cel/cel283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +215,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +527,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,12 +651,28 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="19">
+        <v>44007</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>

--- a/sputnik/personal/cel/cel283.xlsx
+++ b/sputnik/personal/cel/cel283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,11 +681,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="A13" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1000</v>
+      </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="A14" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13">
+        <v>170</v>
+      </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel283.xlsx
+++ b/sputnik/personal/cel/cel283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,20 +702,40 @@
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>44317</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="22">
         <v>170</v>
       </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="19">
+        <v>44375</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>44375</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
